--- a/Script bd/2017-DOCENTES.xlsx
+++ b/Script bd/2017-DOCENTES.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmer\Desktop\datos importar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="705" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="705" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="CARGUITA" sheetId="21" r:id="rId5"/>
     <sheet name="comisiones" sheetId="23" r:id="rId6"/>
     <sheet name="iza" sheetId="24" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="25" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$2:$G$31</definedName>
@@ -27,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HORARIO!$A$3:$J$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'OTRA CARGA'!$A$2:$E$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1182,7 +1178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2909,49 +2905,124 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2978,12 +3049,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3000,78 +3065,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3081,43 +3119,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3129,21 +3140,9 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3173,9 +3172,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3197,11 +3193,10 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="22" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="23" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="24" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="25" builtinId="33" customBuiltin="1"/>
@@ -3218,6 +3213,7 @@
     <cellStyle name="Texto de advertencia" xfId="35" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="36" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="37" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
@@ -3278,7 +3274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3313,7 +3309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3542,16 +3538,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="192" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="189"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="197"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3583,7 +3579,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="194" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="170" t="s">
@@ -3593,7 +3589,7 @@
       <c r="E3" s="3">
         <v>24</v>
       </c>
-      <c r="F3" s="191" t="s">
+      <c r="F3" s="196" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="170" t="s">
@@ -3605,7 +3601,7 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="190"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="170" t="s">
         <v>8</v>
       </c>
@@ -3613,28 +3609,28 @@
       <c r="E4" s="3">
         <v>25</v>
       </c>
-      <c r="F4" s="191"/>
+      <c r="F4" s="196"/>
       <c r="G4" s="170" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="188" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="190"/>
+      <c r="B5" s="194"/>
       <c r="C5" s="170" t="s">
         <v>11</v>
       </c>
@@ -3642,28 +3638,28 @@
       <c r="E5" s="3">
         <v>26</v>
       </c>
-      <c r="F5" s="191"/>
+      <c r="F5" s="196"/>
       <c r="G5" s="170" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="J5" s="194" t="s">
+      <c r="J5" s="188" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
     </row>
     <row r="6" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="190"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="170" t="s">
         <v>272</v>
       </c>
@@ -3671,32 +3667,32 @@
       <c r="E6" s="3">
         <v>27</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="196"/>
       <c r="G6" s="170" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="189" t="s">
         <v>356</v>
       </c>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="196" t="s">
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="190" t="s">
         <v>362</v>
       </c>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="195" t="s">
+      <c r="N6" s="190"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="189" t="s">
         <v>363</v>
       </c>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
+      <c r="Q6" s="189"/>
+      <c r="R6" s="189"/>
     </row>
     <row r="7" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="190"/>
+      <c r="B7" s="194"/>
       <c r="C7" s="170" t="s">
         <v>218</v>
       </c>
@@ -3704,7 +3700,7 @@
       <c r="E7" s="3">
         <v>28</v>
       </c>
-      <c r="F7" s="191"/>
+      <c r="F7" s="196"/>
       <c r="G7" s="170" t="s">
         <v>13</v>
       </c>
@@ -3741,7 +3737,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="190"/>
+      <c r="B8" s="194"/>
       <c r="C8" s="170" t="s">
         <v>15</v>
       </c>
@@ -3749,7 +3745,7 @@
       <c r="E8" s="3">
         <v>29</v>
       </c>
-      <c r="F8" s="191"/>
+      <c r="F8" s="196"/>
       <c r="G8" s="170" t="s">
         <v>14</v>
       </c>
@@ -3789,7 +3785,7 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="194" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="170" t="s">
@@ -3799,7 +3795,7 @@
       <c r="E9" s="3">
         <v>30</v>
       </c>
-      <c r="F9" s="190" t="s">
+      <c r="F9" s="194" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="170" t="s">
@@ -3811,7 +3807,7 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="190"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="170" t="s">
         <v>21</v>
       </c>
@@ -3819,7 +3815,7 @@
       <c r="E10" s="3">
         <v>31</v>
       </c>
-      <c r="F10" s="190"/>
+      <c r="F10" s="194"/>
       <c r="G10" s="170" t="s">
         <v>20</v>
       </c>
@@ -3829,7 +3825,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="190"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="170" t="s">
         <v>262</v>
       </c>
@@ -3837,7 +3833,7 @@
       <c r="E11" s="3">
         <v>32</v>
       </c>
-      <c r="F11" s="190"/>
+      <c r="F11" s="194"/>
       <c r="G11" s="170" t="s">
         <v>353</v>
       </c>
@@ -3847,7 +3843,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="190"/>
+      <c r="B12" s="194"/>
       <c r="C12" s="170" t="s">
         <v>25</v>
       </c>
@@ -3855,7 +3851,7 @@
       <c r="E12" s="3">
         <v>33</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="194" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="170" t="s">
@@ -3867,7 +3863,7 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="190"/>
+      <c r="B13" s="194"/>
       <c r="C13" s="170" t="s">
         <v>27</v>
       </c>
@@ -3875,7 +3871,7 @@
       <c r="E13" s="3">
         <v>34</v>
       </c>
-      <c r="F13" s="190"/>
+      <c r="F13" s="194"/>
       <c r="G13" s="170" t="s">
         <v>24</v>
       </c>
@@ -3885,7 +3881,7 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="190"/>
+      <c r="B14" s="194"/>
       <c r="C14" s="170" t="s">
         <v>30</v>
       </c>
@@ -3893,7 +3889,7 @@
       <c r="E14" s="3">
         <v>35</v>
       </c>
-      <c r="F14" s="190"/>
+      <c r="F14" s="194"/>
       <c r="G14" s="170" t="s">
         <v>26</v>
       </c>
@@ -3903,7 +3899,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="196" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="170" t="s">
@@ -3913,7 +3909,7 @@
       <c r="E15" s="3">
         <v>36</v>
       </c>
-      <c r="F15" s="190" t="s">
+      <c r="F15" s="194" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="170" t="s">
@@ -3925,7 +3921,7 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="191"/>
+      <c r="B16" s="196"/>
       <c r="C16" s="170" t="s">
         <v>265</v>
       </c>
@@ -3933,7 +3929,7 @@
       <c r="E16" s="3">
         <v>37</v>
       </c>
-      <c r="F16" s="190"/>
+      <c r="F16" s="194"/>
       <c r="G16" s="170" t="s">
         <v>31</v>
       </c>
@@ -3943,7 +3939,7 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="191"/>
+      <c r="B17" s="196"/>
       <c r="C17" s="170" t="s">
         <v>37</v>
       </c>
@@ -3951,7 +3947,7 @@
       <c r="E17" s="3">
         <v>38</v>
       </c>
-      <c r="F17" s="190" t="s">
+      <c r="F17" s="194" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="170" t="s">
@@ -3963,7 +3959,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="194" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="170" t="s">
@@ -3973,7 +3969,7 @@
       <c r="E18" s="3">
         <v>39</v>
       </c>
-      <c r="F18" s="190"/>
+      <c r="F18" s="194"/>
       <c r="G18" s="170" t="s">
         <v>35</v>
       </c>
@@ -3983,7 +3979,7 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="190"/>
+      <c r="B19" s="194"/>
       <c r="C19" s="170" t="s">
         <v>45</v>
       </c>
@@ -3991,7 +3987,7 @@
       <c r="E19" s="3">
         <v>40</v>
       </c>
-      <c r="F19" s="190"/>
+      <c r="F19" s="194"/>
       <c r="G19" s="170" t="s">
         <v>36</v>
       </c>
@@ -4001,7 +3997,7 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="190"/>
+      <c r="B20" s="194"/>
       <c r="C20" s="170" t="s">
         <v>47</v>
       </c>
@@ -4009,7 +4005,7 @@
       <c r="E20" s="3">
         <v>41</v>
       </c>
-      <c r="F20" s="193" t="s">
+      <c r="F20" s="195" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="170" t="s">
@@ -4021,7 +4017,7 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="190"/>
+      <c r="B21" s="194"/>
       <c r="C21" s="170" t="s">
         <v>271</v>
       </c>
@@ -4029,7 +4025,7 @@
       <c r="E21" s="3">
         <v>42</v>
       </c>
-      <c r="F21" s="193"/>
+      <c r="F21" s="195"/>
       <c r="G21" s="170" t="s">
         <v>41</v>
       </c>
@@ -4039,7 +4035,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="190"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="170" t="s">
         <v>49</v>
       </c>
@@ -4047,7 +4043,7 @@
       <c r="E22" s="3">
         <v>43</v>
       </c>
-      <c r="F22" s="193"/>
+      <c r="F22" s="195"/>
       <c r="G22" s="170" t="s">
         <v>44</v>
       </c>
@@ -4057,7 +4053,7 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="190"/>
+      <c r="B23" s="194"/>
       <c r="C23" s="170" t="s">
         <v>50</v>
       </c>
@@ -4065,7 +4061,7 @@
       <c r="E23" s="3">
         <v>44</v>
       </c>
-      <c r="F23" s="191" t="s">
+      <c r="F23" s="196" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="170" t="s">
@@ -4077,7 +4073,7 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="190"/>
+      <c r="B24" s="194"/>
       <c r="C24" s="170" t="s">
         <v>51</v>
       </c>
@@ -4085,7 +4081,7 @@
       <c r="E24" s="3">
         <v>45</v>
       </c>
-      <c r="F24" s="191"/>
+      <c r="F24" s="196"/>
       <c r="G24" s="170" t="s">
         <v>152</v>
       </c>
@@ -4095,7 +4091,7 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="190"/>
+      <c r="B25" s="194"/>
       <c r="C25" s="170" t="s">
         <v>52</v>
       </c>
@@ -4103,7 +4099,7 @@
       <c r="E25" s="3">
         <v>46</v>
       </c>
-      <c r="F25" s="191" t="s">
+      <c r="F25" s="196" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="172" t="s">
@@ -4119,23 +4115,23 @@
       <c r="E26" s="3">
         <v>47</v>
       </c>
-      <c r="F26" s="191"/>
+      <c r="F26" s="196"/>
       <c r="G26" s="172" t="s">
         <v>354</v>
       </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="192" t="s">
         <v>355</v>
       </c>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -4177,7 +4173,7 @@
       <c r="E29" s="3">
         <v>4</v>
       </c>
-      <c r="F29" s="192" t="s">
+      <c r="F29" s="191" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="170" t="s">
@@ -4199,7 +4195,7 @@
       <c r="E30" s="3">
         <v>5</v>
       </c>
-      <c r="F30" s="192"/>
+      <c r="F30" s="191"/>
       <c r="G30" s="170" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4215,7 @@
       <c r="E31" s="3">
         <v>6</v>
       </c>
-      <c r="F31" s="192"/>
+      <c r="F31" s="191"/>
       <c r="G31" s="170" t="s">
         <v>220</v>
       </c>
@@ -4324,18 +4320,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J5:R5"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B14"/>
@@ -4344,6 +4328,18 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="J5:R5"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -4373,60 +4369,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="225" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="215" t="s">
+      <c r="C2" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="206" t="s">
+      <c r="E2" s="234"/>
+      <c r="F2" s="231" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="202" t="s">
+      <c r="G2" s="227" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="212" t="s">
+      <c r="H2" s="235" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="216"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="239"/>
       <c r="D3" s="62" t="s">
         <v>224</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="213"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="236"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="213" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="46" t="s">
@@ -4442,7 +4438,7 @@
       <c r="G4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="219" t="s">
+      <c r="H4" s="216" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4450,7 +4446,7 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="31" t="s">
         <v>96</v>
       </c>
@@ -4464,13 +4460,13 @@
       <c r="G5" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="220"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="199"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="31" t="s">
         <v>287</v>
       </c>
@@ -4484,13 +4480,13 @@
       <c r="G6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="220"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="199"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="32" t="s">
         <v>98</v>
       </c>
@@ -4504,13 +4500,13 @@
       <c r="G7" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="221"/>
+      <c r="H7" s="219"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="199"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="41" t="s">
         <v>119</v>
       </c>
@@ -4524,7 +4520,7 @@
       <c r="G8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="222" t="s">
+      <c r="H8" s="218" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4532,7 +4528,7 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="199"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="31" t="s">
         <v>108</v>
       </c>
@@ -4546,13 +4542,13 @@
       <c r="G9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="220"/>
+      <c r="H9" s="217"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="200"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="32" t="s">
         <v>109</v>
       </c>
@@ -4566,13 +4562,13 @@
       <c r="G10" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="221"/>
+      <c r="H10" s="219"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="213" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -4588,7 +4584,7 @@
       <c r="G11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="219" t="s">
+      <c r="H11" s="216" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4596,7 +4592,7 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="199"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="31" t="s">
         <v>79</v>
       </c>
@@ -4610,13 +4606,13 @@
       <c r="G12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="220"/>
+      <c r="H12" s="217"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="199"/>
+      <c r="B13" s="214"/>
       <c r="C13" s="38" t="s">
         <v>81</v>
       </c>
@@ -4630,13 +4626,13 @@
       <c r="G13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="220"/>
+      <c r="H13" s="217"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="199"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="27" t="s">
         <v>80</v>
       </c>
@@ -4650,7 +4646,7 @@
       <c r="G14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="219" t="s">
+      <c r="H14" s="216" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4658,7 +4654,7 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="31" t="s">
         <v>82</v>
       </c>
@@ -4672,13 +4668,13 @@
       <c r="G15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="223"/>
+      <c r="H15" s="240"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="199"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="31" t="s">
         <v>83</v>
       </c>
@@ -4692,13 +4688,13 @@
       <c r="G16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="223"/>
+      <c r="H16" s="240"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="199"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="31" t="s">
         <v>84</v>
       </c>
@@ -4712,13 +4708,13 @@
       <c r="G17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="223"/>
+      <c r="H17" s="240"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="200"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="32" t="s">
         <v>288</v>
       </c>
@@ -4732,13 +4728,13 @@
       <c r="G18" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="224"/>
+      <c r="H18" s="241"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="226" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -4754,7 +4750,7 @@
       <c r="G19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="219" t="s">
+      <c r="H19" s="216" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4762,7 +4758,7 @@
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="199"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="31" t="s">
         <v>73</v>
       </c>
@@ -4776,13 +4772,13 @@
       <c r="G20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="220"/>
+      <c r="H20" s="217"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="199"/>
+      <c r="B21" s="214"/>
       <c r="C21" s="31" t="s">
         <v>74</v>
       </c>
@@ -4796,13 +4792,13 @@
       <c r="G21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="220"/>
+      <c r="H21" s="217"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="199"/>
+      <c r="B22" s="214"/>
       <c r="C22" s="31" t="s">
         <v>223</v>
       </c>
@@ -4816,13 +4812,13 @@
       <c r="G22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="220"/>
+      <c r="H22" s="217"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="199"/>
+      <c r="B23" s="214"/>
       <c r="C23" s="31" t="s">
         <v>263</v>
       </c>
@@ -4836,13 +4832,13 @@
       <c r="G23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="220"/>
+      <c r="H23" s="217"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="199"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="32" t="s">
         <v>77</v>
       </c>
@@ -4856,13 +4852,13 @@
       <c r="G24" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="221"/>
+      <c r="H24" s="219"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="199"/>
+      <c r="B25" s="214"/>
       <c r="C25" s="27" t="s">
         <v>86</v>
       </c>
@@ -4876,7 +4872,7 @@
       <c r="G25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="219" t="s">
+      <c r="H25" s="216" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4884,7 +4880,7 @@
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="199"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="31" t="s">
         <v>87</v>
       </c>
@@ -4898,13 +4894,13 @@
       <c r="G26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="220"/>
+      <c r="H26" s="217"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="199"/>
+      <c r="B27" s="214"/>
       <c r="C27" s="31" t="s">
         <v>88</v>
       </c>
@@ -4918,13 +4914,13 @@
       <c r="G27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="220"/>
+      <c r="H27" s="217"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="199"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="31" t="s">
         <v>89</v>
       </c>
@@ -4938,13 +4934,13 @@
       <c r="G28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="220"/>
+      <c r="H28" s="217"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="199"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="31" t="s">
         <v>90</v>
       </c>
@@ -4958,13 +4954,13 @@
       <c r="G29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="220"/>
+      <c r="H29" s="217"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="199"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="31" t="s">
         <v>124</v>
       </c>
@@ -4978,13 +4974,13 @@
       <c r="G30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="220"/>
+      <c r="H30" s="217"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="199"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="27" t="s">
         <v>229</v>
       </c>
@@ -5000,7 +4996,7 @@
       <c r="G31" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="210" t="s">
+      <c r="H31" s="222" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5008,7 +5004,7 @@
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="199"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="32" t="s">
         <v>94</v>
       </c>
@@ -5022,13 +5018,13 @@
       <c r="G32" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="211"/>
+      <c r="H32" s="224"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="199"/>
+      <c r="B33" s="214"/>
       <c r="C33" s="41" t="s">
         <v>99</v>
       </c>
@@ -5042,7 +5038,7 @@
       <c r="G33" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="210" t="s">
+      <c r="H33" s="222" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5050,7 +5046,7 @@
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="199"/>
+      <c r="B34" s="214"/>
       <c r="C34" s="38" t="s">
         <v>100</v>
       </c>
@@ -5064,13 +5060,13 @@
       <c r="G34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="217"/>
+      <c r="H34" s="221"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="199"/>
+      <c r="B35" s="214"/>
       <c r="C35" s="32" t="s">
         <v>101</v>
       </c>
@@ -5084,13 +5080,13 @@
       <c r="G35" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="218"/>
+      <c r="H35" s="223"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="199"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="27" t="s">
         <v>102</v>
       </c>
@@ -5104,7 +5100,7 @@
       <c r="G36" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="210" t="s">
+      <c r="H36" s="222" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5112,7 +5108,7 @@
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="199"/>
+      <c r="B37" s="214"/>
       <c r="C37" s="31" t="s">
         <v>103</v>
       </c>
@@ -5126,13 +5122,13 @@
       <c r="G37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="217"/>
+      <c r="H37" s="221"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="199"/>
+      <c r="B38" s="214"/>
       <c r="C38" s="32" t="s">
         <v>104</v>
       </c>
@@ -5146,13 +5142,13 @@
       <c r="G38" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H38" s="218"/>
+      <c r="H38" s="223"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="199"/>
+      <c r="B39" s="214"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -5166,7 +5162,7 @@
       <c r="G39" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="210" t="s">
+      <c r="H39" s="222" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5174,7 +5170,7 @@
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="200"/>
+      <c r="B40" s="215"/>
       <c r="C40" s="32" t="s">
         <v>106</v>
       </c>
@@ -5188,13 +5184,13 @@
       <c r="G40" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="211"/>
+      <c r="H40" s="224"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="198" t="s">
+      <c r="B41" s="213" t="s">
         <v>118</v>
       </c>
       <c r="C41" s="27" t="s">
@@ -5210,7 +5206,7 @@
       <c r="G41" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="222" t="s">
+      <c r="H41" s="218" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5218,7 +5214,7 @@
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="199"/>
+      <c r="B42" s="214"/>
       <c r="C42" s="31" t="s">
         <v>66</v>
       </c>
@@ -5232,13 +5228,13 @@
       <c r="G42" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="220"/>
+      <c r="H42" s="217"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="199"/>
+      <c r="B43" s="214"/>
       <c r="C43" s="31" t="s">
         <v>68</v>
       </c>
@@ -5252,13 +5248,13 @@
       <c r="G43" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="220"/>
+      <c r="H43" s="217"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="199"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="31" t="s">
         <v>217</v>
       </c>
@@ -5272,13 +5268,13 @@
       <c r="G44" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="220"/>
+      <c r="H44" s="217"/>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="199"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="31" t="s">
         <v>273</v>
       </c>
@@ -5292,13 +5288,13 @@
       <c r="G45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="220"/>
+      <c r="H45" s="217"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="199"/>
+      <c r="B46" s="214"/>
       <c r="C46" s="43" t="s">
         <v>71</v>
       </c>
@@ -5312,13 +5308,13 @@
       <c r="G46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="221"/>
+      <c r="H46" s="219"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="199"/>
+      <c r="B47" s="214"/>
       <c r="C47" s="27" t="s">
         <v>129</v>
       </c>
@@ -5332,7 +5328,7 @@
       <c r="G47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="210" t="s">
+      <c r="H47" s="222" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5340,7 +5336,7 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="199"/>
+      <c r="B48" s="214"/>
       <c r="C48" s="45" t="s">
         <v>266</v>
       </c>
@@ -5354,13 +5350,13 @@
       <c r="G48" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="218"/>
+      <c r="H48" s="223"/>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="199"/>
+      <c r="B49" s="214"/>
       <c r="C49" s="46"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25" t="s">
@@ -5372,7 +5368,7 @@
       <c r="G49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="225" t="s">
+      <c r="H49" s="220" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5380,7 +5376,7 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="200"/>
+      <c r="B50" s="215"/>
       <c r="C50" s="32"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
@@ -5392,157 +5388,157 @@
       <c r="G50" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="217"/>
+      <c r="H50" s="221"/>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="47"/>
       <c r="C51" s="48"/>
-      <c r="D51" s="233">
+      <c r="D51" s="199">
         <f>D4+D5+D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25+D26+D27+D28+D29+D30+D31+D32+D33+D34+D35+D36+D37+D38+D39+D40+D41+D42+D43+D44+D45+D46+D47+D48</f>
         <v>40</v>
       </c>
-      <c r="E51" s="233">
+      <c r="E51" s="199">
         <f>E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31+E32+E33+E34+E35+E36+E37+E38+E39+E40+E41+E42+E43+E44+E45+E46+E47+E48</f>
         <v>4080</v>
       </c>
-      <c r="F51" s="238" t="s">
+      <c r="F51" s="204" t="s">
         <v>228</v>
       </c>
-      <c r="G51" s="239"/>
-      <c r="H51" s="240"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="206"/>
     </row>
     <row r="52" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
-      <c r="D52" s="234"/>
-      <c r="E52" s="234"/>
-      <c r="F52" s="235">
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="201">
         <f>D51+E51</f>
         <v>4120</v>
       </c>
-      <c r="G52" s="236"/>
-      <c r="H52" s="237"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="203"/>
     </row>
     <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="232" t="s">
+      <c r="A53" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="232"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="232"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="232"/>
-      <c r="H53" s="232"/>
+      <c r="B53" s="198"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="198"/>
+      <c r="H53" s="198"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="230" t="s">
+      <c r="B54" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="231"/>
+      <c r="C54" s="212"/>
       <c r="D54" s="16" t="s">
         <v>111</v>
       </c>
       <c r="E54" s="60"/>
-      <c r="F54" s="228" t="s">
+      <c r="F54" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="229"/>
+      <c r="G54" s="210"/>
       <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="230" t="s">
+      <c r="B55" s="211" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="231"/>
+      <c r="C55" s="212"/>
       <c r="D55" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E55" s="50"/>
-      <c r="F55" s="228" t="s">
+      <c r="F55" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="229"/>
+      <c r="G55" s="210"/>
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>51</v>
       </c>
-      <c r="B56" s="230" t="s">
+      <c r="B56" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="231"/>
+      <c r="C56" s="212"/>
       <c r="D56" s="16" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="60"/>
-      <c r="F56" s="228" t="s">
+      <c r="F56" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="G56" s="229"/>
+      <c r="G56" s="210"/>
       <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>52</v>
       </c>
-      <c r="B57" s="230" t="s">
+      <c r="B57" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="231"/>
+      <c r="C57" s="212"/>
       <c r="D57" s="16" t="s">
         <v>111</v>
       </c>
       <c r="E57" s="60"/>
-      <c r="F57" s="228" t="s">
+      <c r="F57" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="G57" s="229"/>
+      <c r="G57" s="210"/>
       <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>53</v>
       </c>
-      <c r="B58" s="230" t="s">
+      <c r="B58" s="211" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="231"/>
+      <c r="C58" s="212"/>
       <c r="D58" s="16" t="s">
         <v>111</v>
       </c>
       <c r="E58" s="60"/>
-      <c r="F58" s="228" t="s">
+      <c r="F58" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="G58" s="229"/>
+      <c r="G58" s="210"/>
       <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>54</v>
       </c>
-      <c r="B59" s="226" t="s">
+      <c r="B59" s="207" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="227"/>
+      <c r="C59" s="208"/>
       <c r="D59" s="19" t="s">
         <v>111</v>
       </c>
       <c r="E59" s="61"/>
-      <c r="F59" s="228" t="s">
+      <c r="F59" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="G59" s="229"/>
+      <c r="G59" s="210"/>
       <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -5943,32 +5939,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H41:H46"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="H25:H30"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H40"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="B11:B18"/>
@@ -5985,6 +5955,32 @@
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H14:H18"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F51:H51"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0" bottom="1.1811023622047245" header="0" footer="0"/>
@@ -5997,8 +5993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A9" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6012,13 +6008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -6036,7 +6032,7 @@
       <c r="E2" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="276" t="s">
+      <c r="F2" s="187" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7011,13 +7007,13 @@
       <c r="E51" s="59"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="232" t="s">
+      <c r="A52" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="232"/>
-      <c r="C52" s="232"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="232"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
@@ -7029,10 +7025,10 @@
       <c r="C53" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="228" t="s">
+      <c r="D53" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="241"/>
+      <c r="E53" s="242"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
@@ -7044,10 +7040,10 @@
       <c r="C54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="228" t="s">
+      <c r="D54" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="241"/>
+      <c r="E54" s="242"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
@@ -7059,10 +7055,10 @@
       <c r="C55" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="228" t="s">
+      <c r="D55" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="241"/>
+      <c r="E55" s="242"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
@@ -7074,10 +7070,10 @@
       <c r="C56" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="228" t="s">
+      <c r="D56" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="241"/>
+      <c r="E56" s="242"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
@@ -7089,10 +7085,10 @@
       <c r="C57" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="228" t="s">
+      <c r="D57" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="241"/>
+      <c r="E57" s="242"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D58" s="12"/>
@@ -7136,41 +7132,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="225" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="256" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="243"/>
+      <c r="C3" s="257"/>
       <c r="D3" s="66" t="s">
         <v>2</v>
       </c>
@@ -7197,10 +7193,10 @@
       <c r="A4" s="65">
         <v>1</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="258" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="216" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="72" t="s">
@@ -7221,8 +7217,8 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="220"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="217"/>
       <c r="D5" s="73" t="s">
         <v>96</v>
       </c>
@@ -7245,8 +7241,8 @@
       <c r="A6" s="65">
         <v>3</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="220"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="73" t="s">
         <v>265</v>
       </c>
@@ -7269,8 +7265,8 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="221"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="219"/>
       <c r="D7" s="74" t="s">
         <v>98</v>
       </c>
@@ -7289,8 +7285,8 @@
       <c r="A8" s="65">
         <v>5</v>
       </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="222" t="s">
+      <c r="B8" s="214"/>
+      <c r="C8" s="218" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="41" t="s">
@@ -7313,8 +7309,8 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="199"/>
-      <c r="C9" s="220"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="217"/>
       <c r="D9" s="31" t="s">
         <v>108</v>
       </c>
@@ -7339,8 +7335,8 @@
       <c r="A10" s="65">
         <v>7</v>
       </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="221"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="219"/>
       <c r="D10" s="32" t="s">
         <v>109</v>
       </c>
@@ -7363,10 +7359,10 @@
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="216" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="75" t="s">
@@ -7391,8 +7387,8 @@
       <c r="A12" s="65">
         <v>9</v>
       </c>
-      <c r="B12" s="199"/>
-      <c r="C12" s="220"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="73" t="s">
         <v>79</v>
       </c>
@@ -7417,8 +7413,8 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="220"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="217"/>
       <c r="D13" s="76" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7435,8 @@
       <c r="A14" s="65">
         <v>11</v>
       </c>
-      <c r="B14" s="199"/>
-      <c r="C14" s="219" t="s">
+      <c r="B14" s="214"/>
+      <c r="C14" s="216" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -7465,8 +7461,8 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="223"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="31" t="s">
         <v>82</v>
       </c>
@@ -7489,8 +7485,8 @@
       <c r="A16" s="65">
         <v>13</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="223"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="240"/>
       <c r="D16" s="31" t="s">
         <v>83</v>
       </c>
@@ -7515,8 +7511,8 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="223"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="240"/>
       <c r="D17" s="31" t="s">
         <v>84</v>
       </c>
@@ -7541,8 +7537,8 @@
       <c r="A18" s="65">
         <v>15</v>
       </c>
-      <c r="B18" s="200"/>
-      <c r="C18" s="224"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="241"/>
       <c r="D18" s="4" t="s">
         <v>271</v>
       </c>
@@ -7563,10 +7559,10 @@
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="219" t="s">
+      <c r="C19" s="216" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="75" t="s">
@@ -7591,8 +7587,8 @@
       <c r="A20" s="65">
         <v>17</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="220"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="217"/>
       <c r="D20" s="73" t="s">
         <v>73</v>
       </c>
@@ -7617,8 +7613,8 @@
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="199"/>
-      <c r="C21" s="220"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="73" t="s">
         <v>74</v>
       </c>
@@ -7641,8 +7637,8 @@
       <c r="A22" s="65">
         <v>19</v>
       </c>
-      <c r="B22" s="199"/>
-      <c r="C22" s="220"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="73" t="s">
         <v>223</v>
       </c>
@@ -7667,8 +7663,8 @@
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="199"/>
-      <c r="C23" s="220"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="217"/>
       <c r="D23" s="73" t="s">
         <v>263</v>
       </c>
@@ -7693,8 +7689,8 @@
       <c r="A24" s="65">
         <v>21</v>
       </c>
-      <c r="B24" s="199"/>
-      <c r="C24" s="221"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="219"/>
       <c r="D24" s="74" t="s">
         <v>77</v>
       </c>
@@ -7719,8 +7715,8 @@
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="199"/>
-      <c r="C25" s="219" t="s">
+      <c r="B25" s="214"/>
+      <c r="C25" s="216" t="s">
         <v>125</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -7745,8 +7741,8 @@
       <c r="A26" s="65">
         <v>23</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="220"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="31" t="s">
         <v>87</v>
       </c>
@@ -7771,8 +7767,8 @@
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="199"/>
-      <c r="C27" s="220"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="217"/>
       <c r="D27" s="31" t="s">
         <v>88</v>
       </c>
@@ -7795,8 +7791,8 @@
       <c r="A28" s="65">
         <v>25</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="220"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="217"/>
       <c r="D28" s="31" t="s">
         <v>89</v>
       </c>
@@ -7821,8 +7817,8 @@
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="199"/>
-      <c r="C29" s="220"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="217"/>
       <c r="D29" s="31" t="s">
         <v>90</v>
       </c>
@@ -7849,8 +7845,8 @@
       <c r="A30" s="65">
         <v>27</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="220"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="31" t="s">
         <v>124</v>
       </c>
@@ -7875,8 +7871,8 @@
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="199"/>
-      <c r="C31" s="210" t="s">
+      <c r="B31" s="214"/>
+      <c r="C31" s="222" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="75" t="s">
@@ -7901,8 +7897,8 @@
       <c r="A32" s="65">
         <v>29</v>
       </c>
-      <c r="B32" s="199"/>
-      <c r="C32" s="211"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="224"/>
       <c r="D32" s="74" t="s">
         <v>94</v>
       </c>
@@ -7929,8 +7925,8 @@
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="199"/>
-      <c r="C33" s="245" t="s">
+      <c r="B33" s="214"/>
+      <c r="C33" s="250" t="s">
         <v>126</v>
       </c>
       <c r="D33" s="41" t="s">
@@ -7949,8 +7945,8 @@
       <c r="A34" s="65">
         <v>31</v>
       </c>
-      <c r="B34" s="199"/>
-      <c r="C34" s="246"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="254"/>
       <c r="D34" s="38" t="s">
         <v>100</v>
       </c>
@@ -7975,8 +7971,8 @@
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="199"/>
-      <c r="C35" s="247"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="251"/>
       <c r="D35" s="32" t="s">
         <v>101</v>
       </c>
@@ -8001,8 +7997,8 @@
       <c r="A36" s="65">
         <v>33</v>
       </c>
-      <c r="B36" s="199"/>
-      <c r="C36" s="245" t="s">
+      <c r="B36" s="214"/>
+      <c r="C36" s="250" t="s">
         <v>127</v>
       </c>
       <c r="D36" s="75" t="s">
@@ -8029,8 +8025,8 @@
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="246"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="254"/>
       <c r="D37" s="73" t="s">
         <v>103</v>
       </c>
@@ -8049,8 +8045,8 @@
       <c r="A38" s="65">
         <v>35</v>
       </c>
-      <c r="B38" s="199"/>
-      <c r="C38" s="247"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="251"/>
       <c r="D38" s="74" t="s">
         <v>104</v>
       </c>
@@ -8073,8 +8069,8 @@
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="199"/>
-      <c r="C39" s="245" t="s">
+      <c r="B39" s="214"/>
+      <c r="C39" s="250" t="s">
         <v>128</v>
       </c>
       <c r="D39" s="27" t="s">
@@ -8101,8 +8097,8 @@
       <c r="A40" s="65">
         <v>37</v>
       </c>
-      <c r="B40" s="200"/>
-      <c r="C40" s="248"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="255"/>
       <c r="D40" s="32" t="s">
         <v>106</v>
       </c>
@@ -8127,10 +8123,10 @@
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="198" t="s">
+      <c r="B41" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="222" t="s">
+      <c r="C41" s="218" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="75" t="s">
@@ -8157,8 +8153,8 @@
       <c r="A42" s="65">
         <v>39</v>
       </c>
-      <c r="B42" s="199"/>
-      <c r="C42" s="220"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="73" t="s">
         <v>66</v>
       </c>
@@ -8177,8 +8173,8 @@
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="199"/>
-      <c r="C43" s="220"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="73" t="s">
         <v>68</v>
       </c>
@@ -8203,8 +8199,8 @@
       <c r="A44" s="65">
         <v>41</v>
       </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="220"/>
+      <c r="B44" s="214"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="73" t="s">
         <v>217</v>
       </c>
@@ -8229,8 +8225,8 @@
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="199"/>
-      <c r="C45" s="220"/>
+      <c r="B45" s="214"/>
+      <c r="C45" s="217"/>
       <c r="D45" s="73" t="s">
         <v>273</v>
       </c>
@@ -8253,8 +8249,8 @@
       <c r="A46" s="65">
         <v>43</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="221"/>
+      <c r="B46" s="214"/>
+      <c r="C46" s="219"/>
       <c r="D46" s="79" t="s">
         <v>71</v>
       </c>
@@ -8279,8 +8275,8 @@
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="199"/>
-      <c r="C47" s="245" t="s">
+      <c r="B47" s="214"/>
+      <c r="C47" s="250" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="27" t="s">
@@ -8305,8 +8301,8 @@
       <c r="A48" s="65">
         <v>45</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="247"/>
+      <c r="B48" s="214"/>
+      <c r="C48" s="251"/>
       <c r="D48" s="45" t="s">
         <v>266</v>
       </c>
@@ -8329,8 +8325,8 @@
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="199"/>
-      <c r="C49" s="256" t="s">
+      <c r="B49" s="214"/>
+      <c r="C49" s="252" t="s">
         <v>130</v>
       </c>
       <c r="D49" s="72"/>
@@ -8357,8 +8353,8 @@
       <c r="A50" s="65">
         <v>47</v>
       </c>
-      <c r="B50" s="200"/>
-      <c r="C50" s="257"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="253"/>
       <c r="D50" s="74"/>
       <c r="E50" s="93" t="s">
         <v>235</v>
@@ -8383,21 +8379,21 @@
       <c r="A51" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="255"/>
-      <c r="C51" s="255"/>
-      <c r="D51" s="255"/>
-      <c r="E51" s="255"/>
-      <c r="F51" s="255"/>
-      <c r="G51" s="255"/>
-      <c r="H51" s="255"/>
-      <c r="I51" s="255"/>
-      <c r="J51" s="255"/>
+      <c r="B51" s="249"/>
+      <c r="C51" s="249"/>
+      <c r="D51" s="249"/>
+      <c r="E51" s="249"/>
+      <c r="F51" s="249"/>
+      <c r="G51" s="249"/>
+      <c r="H51" s="249"/>
+      <c r="I51" s="249"/>
+      <c r="J51" s="249"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="249" t="s">
+      <c r="B52" s="243" t="s">
         <v>232</v>
       </c>
       <c r="C52" s="69" t="s">
@@ -8429,7 +8425,7 @@
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="250"/>
+      <c r="B53" s="244"/>
       <c r="C53" s="69" t="s">
         <v>56</v>
       </c>
@@ -8459,8 +8455,8 @@
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="250"/>
-      <c r="C54" s="252" t="s">
+      <c r="B54" s="244"/>
+      <c r="C54" s="246" t="s">
         <v>233</v>
       </c>
       <c r="D54" s="55" t="s">
@@ -8489,8 +8485,8 @@
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="250"/>
-      <c r="C55" s="253"/>
+      <c r="B55" s="244"/>
+      <c r="C55" s="247"/>
       <c r="D55" s="55" t="s">
         <v>113</v>
       </c>
@@ -8517,8 +8513,8 @@
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="250"/>
-      <c r="C56" s="254"/>
+      <c r="B56" s="244"/>
+      <c r="C56" s="248"/>
       <c r="D56" s="55" t="s">
         <v>231</v>
       </c>
@@ -8545,7 +8541,7 @@
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="251"/>
+      <c r="B57" s="245"/>
       <c r="C57" s="69" t="s">
         <v>58</v>
       </c>
@@ -8859,20 +8855,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B19:B40"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C13"/>
@@ -8882,6 +8864,20 @@
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B19:B40"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="1.1811023622047245" header="0" footer="0"/>
@@ -8909,107 +8905,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="225" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="225"/>
+      <c r="AC1" s="225"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
+      <c r="AG1" s="225"/>
+      <c r="AH1" s="225"/>
     </row>
     <row r="2" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="266" t="s">
+      <c r="C2" s="237"/>
+      <c r="D2" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="261" t="s">
+      <c r="E2" s="262" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="261" t="s">
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="262" t="s">
         <v>246</v>
       </c>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="262"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="265" t="s">
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="266"/>
+      <c r="O2" s="259" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="262"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="261" t="s">
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262" t="s">
         <v>248</v>
       </c>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="264"/>
-      <c r="Y2" s="265" t="s">
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="266"/>
+      <c r="Y2" s="259" t="s">
         <v>249</v>
       </c>
-      <c r="Z2" s="262"/>
-      <c r="AA2" s="262"/>
-      <c r="AB2" s="262"/>
-      <c r="AC2" s="263"/>
-      <c r="AD2" s="261" t="s">
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="260"/>
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="261"/>
+      <c r="AD2" s="262" t="s">
         <v>250</v>
       </c>
-      <c r="AE2" s="262"/>
-      <c r="AF2" s="262"/>
-      <c r="AG2" s="262"/>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="258" t="s">
+      <c r="AE2" s="260"/>
+      <c r="AF2" s="260"/>
+      <c r="AG2" s="260"/>
+      <c r="AH2" s="261"/>
+      <c r="AI2" s="263" t="s">
         <v>251</v>
       </c>
-      <c r="AJ2" s="259"/>
-      <c r="AK2" s="260"/>
+      <c r="AJ2" s="264"/>
+      <c r="AK2" s="265"/>
     </row>
     <row r="3" spans="1:37" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="267"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="268"/>
       <c r="E3" s="149" t="s">
         <v>221</v>
       </c>
@@ -9114,10 +9110,10 @@
       <c r="A4" s="97">
         <v>1</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="258" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="223" t="s">
+      <c r="C4" s="240" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="72" t="s">
@@ -9171,8 +9167,8 @@
       <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="220"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="217"/>
       <c r="D5" s="73" t="s">
         <v>96</v>
       </c>
@@ -9232,8 +9228,8 @@
       <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="220"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="73" t="s">
         <v>97</v>
       </c>
@@ -9297,8 +9293,8 @@
       <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="221"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="219"/>
       <c r="D7" s="74" t="s">
         <v>98</v>
       </c>
@@ -9350,8 +9346,8 @@
       <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="222" t="s">
+      <c r="B8" s="214"/>
+      <c r="C8" s="218" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="95" t="s">
@@ -9411,8 +9407,8 @@
       <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="199"/>
-      <c r="C9" s="220"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="217"/>
       <c r="D9" s="73" t="s">
         <v>108</v>
       </c>
@@ -9476,8 +9472,8 @@
       <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="200"/>
-      <c r="C10" s="221"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="219"/>
       <c r="D10" s="74" t="s">
         <v>109</v>
       </c>
@@ -9539,10 +9535,10 @@
       <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="216" t="s">
         <v>121</v>
       </c>
       <c r="D11" s="75" t="s">
@@ -9598,8 +9594,8 @@
       <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="199"/>
-      <c r="C12" s="220"/>
+      <c r="B12" s="214"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="73" t="s">
         <v>79</v>
       </c>
@@ -9657,8 +9653,8 @@
       <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="220"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="217"/>
       <c r="D13" s="76" t="s">
         <v>81</v>
       </c>
@@ -9712,8 +9708,8 @@
       <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="199"/>
-      <c r="C14" s="219" t="s">
+      <c r="B14" s="214"/>
+      <c r="C14" s="216" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="75" t="s">
@@ -9769,8 +9765,8 @@
       <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="223"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="240"/>
       <c r="D15" s="73" t="s">
         <v>82</v>
       </c>
@@ -9824,8 +9820,8 @@
       <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="223"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="240"/>
       <c r="D16" s="73" t="s">
         <v>83</v>
       </c>
@@ -9883,8 +9879,8 @@
       <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="223"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="240"/>
       <c r="D17" s="73" t="s">
         <v>84</v>
       </c>
@@ -9940,8 +9936,8 @@
       <c r="A18" s="19">
         <v>15</v>
       </c>
-      <c r="B18" s="200"/>
-      <c r="C18" s="224"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="241"/>
       <c r="D18" s="74" t="s">
         <v>85</v>
       </c>
@@ -9989,10 +9985,10 @@
       <c r="A19" s="19">
         <v>16</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="219" t="s">
+      <c r="C19" s="216" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="75" t="s">
@@ -10048,8 +10044,8 @@
       <c r="A20" s="19">
         <v>17</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="220"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="217"/>
       <c r="D20" s="73" t="s">
         <v>73</v>
       </c>
@@ -10101,8 +10097,8 @@
       <c r="A21" s="19">
         <v>18</v>
       </c>
-      <c r="B21" s="199"/>
-      <c r="C21" s="220"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="73" t="s">
         <v>74</v>
       </c>
@@ -10154,8 +10150,8 @@
       <c r="A22" s="19">
         <v>19</v>
       </c>
-      <c r="B22" s="199"/>
-      <c r="C22" s="220"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="73" t="s">
         <v>223</v>
       </c>
@@ -10209,8 +10205,8 @@
       <c r="A23" s="19">
         <v>20</v>
       </c>
-      <c r="B23" s="199"/>
-      <c r="C23" s="220"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="217"/>
       <c r="D23" s="73" t="s">
         <v>76</v>
       </c>
@@ -10264,8 +10260,8 @@
       <c r="A24" s="19">
         <v>21</v>
       </c>
-      <c r="B24" s="199"/>
-      <c r="C24" s="221"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="219"/>
       <c r="D24" s="74" t="s">
         <v>77</v>
       </c>
@@ -10321,8 +10317,8 @@
       <c r="A25" s="19">
         <v>22</v>
       </c>
-      <c r="B25" s="199"/>
-      <c r="C25" s="219" t="s">
+      <c r="B25" s="214"/>
+      <c r="C25" s="216" t="s">
         <v>125</v>
       </c>
       <c r="D25" s="75" t="s">
@@ -10374,8 +10370,8 @@
       <c r="A26" s="19">
         <v>23</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="220"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="73" t="s">
         <v>87</v>
       </c>
@@ -10427,8 +10423,8 @@
       <c r="A27" s="19">
         <v>24</v>
       </c>
-      <c r="B27" s="199"/>
-      <c r="C27" s="220"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="217"/>
       <c r="D27" s="73" t="s">
         <v>88</v>
       </c>
@@ -10478,8 +10474,8 @@
       <c r="A28" s="19">
         <v>25</v>
       </c>
-      <c r="B28" s="199"/>
-      <c r="C28" s="220"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="217"/>
       <c r="D28" s="73" t="s">
         <v>89</v>
       </c>
@@ -10529,8 +10525,8 @@
       <c r="A29" s="19">
         <v>26</v>
       </c>
-      <c r="B29" s="199"/>
-      <c r="C29" s="220"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="217"/>
       <c r="D29" s="73" t="s">
         <v>90</v>
       </c>
@@ -10580,8 +10576,8 @@
       <c r="A30" s="19">
         <v>27</v>
       </c>
-      <c r="B30" s="199"/>
-      <c r="C30" s="220"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="73" t="s">
         <v>124</v>
       </c>
@@ -10633,8 +10629,8 @@
       <c r="A31" s="19">
         <v>28</v>
       </c>
-      <c r="B31" s="199"/>
-      <c r="C31" s="210" t="s">
+      <c r="B31" s="214"/>
+      <c r="C31" s="222" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="75" t="s">
@@ -10702,8 +10698,8 @@
       <c r="A32" s="19">
         <v>29</v>
       </c>
-      <c r="B32" s="199"/>
-      <c r="C32" s="211"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="224"/>
       <c r="D32" s="74" t="s">
         <v>94</v>
       </c>
@@ -10777,8 +10773,8 @@
       <c r="A33" s="19">
         <v>30</v>
       </c>
-      <c r="B33" s="199"/>
-      <c r="C33" s="245" t="s">
+      <c r="B33" s="214"/>
+      <c r="C33" s="250" t="s">
         <v>126</v>
       </c>
       <c r="D33" s="95" t="s">
@@ -10824,8 +10820,8 @@
       <c r="A34" s="19">
         <v>31</v>
       </c>
-      <c r="B34" s="199"/>
-      <c r="C34" s="246"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="254"/>
       <c r="D34" s="76" t="s">
         <v>100</v>
       </c>
@@ -10897,8 +10893,8 @@
       <c r="A35" s="19">
         <v>32</v>
       </c>
-      <c r="B35" s="199"/>
-      <c r="C35" s="247"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="251"/>
       <c r="D35" s="74" t="s">
         <v>101</v>
       </c>
@@ -10968,8 +10964,8 @@
       <c r="A36" s="19">
         <v>33</v>
       </c>
-      <c r="B36" s="199"/>
-      <c r="C36" s="245" t="s">
+      <c r="B36" s="214"/>
+      <c r="C36" s="250" t="s">
         <v>127</v>
       </c>
       <c r="D36" s="75" t="s">
@@ -11039,8 +11035,8 @@
       <c r="A37" s="19">
         <v>34</v>
       </c>
-      <c r="B37" s="199"/>
-      <c r="C37" s="246"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="254"/>
       <c r="D37" s="73" t="s">
         <v>103</v>
       </c>
@@ -11094,8 +11090,8 @@
       <c r="A38" s="19">
         <v>35</v>
       </c>
-      <c r="B38" s="199"/>
-      <c r="C38" s="247"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="251"/>
       <c r="D38" s="74" t="s">
         <v>104</v>
       </c>
@@ -11159,8 +11155,8 @@
       <c r="A39" s="19">
         <v>36</v>
       </c>
-      <c r="B39" s="199"/>
-      <c r="C39" s="245" t="s">
+      <c r="B39" s="214"/>
+      <c r="C39" s="250" t="s">
         <v>128</v>
       </c>
       <c r="D39" s="75" t="s">
@@ -11234,8 +11230,8 @@
       <c r="A40" s="19">
         <v>37</v>
       </c>
-      <c r="B40" s="200"/>
-      <c r="C40" s="248"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="255"/>
       <c r="D40" s="74" t="s">
         <v>106</v>
       </c>
@@ -11307,10 +11303,10 @@
       <c r="A41" s="19">
         <v>38</v>
       </c>
-      <c r="B41" s="198" t="s">
+      <c r="B41" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="222" t="s">
+      <c r="C41" s="218" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="75" t="s">
@@ -11366,8 +11362,8 @@
       <c r="A42" s="19">
         <v>39</v>
       </c>
-      <c r="B42" s="199"/>
-      <c r="C42" s="220"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="73" t="s">
         <v>66</v>
       </c>
@@ -11413,8 +11409,8 @@
       <c r="A43" s="19">
         <v>40</v>
       </c>
-      <c r="B43" s="199"/>
-      <c r="C43" s="220"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="73" t="s">
         <v>68</v>
       </c>
@@ -11468,8 +11464,8 @@
       <c r="A44" s="19">
         <v>41</v>
       </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="220"/>
+      <c r="B44" s="214"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="73" t="s">
         <v>217</v>
       </c>
@@ -11521,8 +11517,8 @@
       <c r="A45" s="19">
         <v>42</v>
       </c>
-      <c r="B45" s="199"/>
-      <c r="C45" s="220"/>
+      <c r="B45" s="214"/>
+      <c r="C45" s="217"/>
       <c r="D45" s="73" t="s">
         <v>69</v>
       </c>
@@ -11568,8 +11564,8 @@
       <c r="A46" s="19">
         <v>43</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="220"/>
+      <c r="B46" s="214"/>
+      <c r="C46" s="217"/>
       <c r="D46" s="73" t="s">
         <v>70</v>
       </c>
@@ -11615,8 +11611,8 @@
       <c r="A47" s="19">
         <v>44</v>
       </c>
-      <c r="B47" s="199"/>
-      <c r="C47" s="221"/>
+      <c r="B47" s="214"/>
+      <c r="C47" s="219"/>
       <c r="D47" s="79" t="s">
         <v>71</v>
       </c>
@@ -11672,8 +11668,8 @@
       <c r="A48" s="19">
         <v>45</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="245" t="s">
+      <c r="B48" s="214"/>
+      <c r="C48" s="250" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="75" t="s">
@@ -11727,8 +11723,8 @@
       <c r="A49" s="19">
         <v>46</v>
       </c>
-      <c r="B49" s="199"/>
-      <c r="C49" s="247"/>
+      <c r="B49" s="214"/>
+      <c r="C49" s="251"/>
       <c r="D49" s="96" t="s">
         <v>143</v>
       </c>
@@ -11784,8 +11780,8 @@
       <c r="A50" s="19">
         <v>47</v>
       </c>
-      <c r="B50" s="199"/>
-      <c r="C50" s="256" t="s">
+      <c r="B50" s="214"/>
+      <c r="C50" s="252" t="s">
         <v>130</v>
       </c>
       <c r="D50" s="72" t="s">
@@ -11859,8 +11855,8 @@
       <c r="A51" s="19">
         <v>48</v>
       </c>
-      <c r="B51" s="200"/>
-      <c r="C51" s="257"/>
+      <c r="B51" s="215"/>
+      <c r="C51" s="253"/>
       <c r="D51" s="74" t="s">
         <v>112</v>
       </c>
@@ -12190,18 +12186,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="B19:B40"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:B10"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="B41:B51"/>
     <mergeCell ref="C41:C47"/>
@@ -12218,6 +12202,18 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="B19:B40"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -12241,16 +12237,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="269" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="162"/>
@@ -12263,16 +12259,16 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="270" t="s">
+      <c r="B4" s="271" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
@@ -12500,11 +12496,11 @@
       <c r="F40" s="164"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G43" s="271" t="s">
+      <c r="G43" s="272" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="271"/>
-      <c r="I43" s="271"/>
+      <c r="H43" s="272"/>
+      <c r="I43" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12532,12 +12528,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="269" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="162"/>
@@ -12546,12 +12542,12 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="275" t="s">
+      <c r="B4" s="276" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
     </row>
     <row r="5" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="165"/>
@@ -12562,7 +12558,7 @@
     </row>
     <row r="6" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="165"/>
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="273" t="s">
         <v>323</v>
       </c>
       <c r="C6" s="18">
@@ -12575,7 +12571,7 @@
     </row>
     <row r="7" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="165"/>
-      <c r="B7" s="273"/>
+      <c r="B7" s="274"/>
       <c r="C7" s="18">
         <v>15</v>
       </c>
@@ -12586,7 +12582,7 @@
     </row>
     <row r="8" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="165"/>
-      <c r="B8" s="273"/>
+      <c r="B8" s="274"/>
       <c r="C8" s="18">
         <v>22</v>
       </c>
@@ -12597,7 +12593,7 @@
     </row>
     <row r="9" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="165"/>
-      <c r="B9" s="274"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="18">
         <v>29</v>
       </c>
@@ -12608,7 +12604,7 @@
     </row>
     <row r="10" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="165"/>
-      <c r="B10" s="272" t="s">
+      <c r="B10" s="273" t="s">
         <v>324</v>
       </c>
       <c r="C10" s="18">
@@ -12621,7 +12617,7 @@
     </row>
     <row r="11" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="165"/>
-      <c r="B11" s="273"/>
+      <c r="B11" s="274"/>
       <c r="C11" s="18">
         <v>14</v>
       </c>
@@ -12632,7 +12628,7 @@
     </row>
     <row r="12" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="165"/>
-      <c r="B12" s="273"/>
+      <c r="B12" s="274"/>
       <c r="C12" s="18">
         <v>21</v>
       </c>
@@ -12643,7 +12639,7 @@
     </row>
     <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="165"/>
-      <c r="B13" s="274"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="18">
         <v>28</v>
       </c>
@@ -12654,7 +12650,7 @@
     </row>
     <row r="14" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="165"/>
-      <c r="B14" s="272" t="s">
+      <c r="B14" s="273" t="s">
         <v>325</v>
       </c>
       <c r="C14" s="18">
@@ -12667,7 +12663,7 @@
     </row>
     <row r="15" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="165"/>
-      <c r="B15" s="273"/>
+      <c r="B15" s="274"/>
       <c r="C15" s="18">
         <v>11</v>
       </c>
@@ -12678,7 +12674,7 @@
     </row>
     <row r="16" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="165"/>
-      <c r="B16" s="273"/>
+      <c r="B16" s="274"/>
       <c r="C16" s="18">
         <v>18</v>
       </c>
@@ -12689,7 +12685,7 @@
     </row>
     <row r="17" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="165"/>
-      <c r="B17" s="274"/>
+      <c r="B17" s="275"/>
       <c r="C17" s="18">
         <v>25</v>
       </c>
@@ -12700,7 +12696,7 @@
     </row>
     <row r="18" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="165"/>
-      <c r="B18" s="272" t="s">
+      <c r="B18" s="273" t="s">
         <v>326</v>
       </c>
       <c r="C18" s="18">
@@ -12713,7 +12709,7 @@
     </row>
     <row r="19" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="165"/>
-      <c r="B19" s="273"/>
+      <c r="B19" s="274"/>
       <c r="C19" s="18">
         <v>9</v>
       </c>
@@ -12724,7 +12720,7 @@
     </row>
     <row r="20" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="165"/>
-      <c r="B20" s="273"/>
+      <c r="B20" s="274"/>
       <c r="C20" s="18">
         <v>16</v>
       </c>
@@ -12735,7 +12731,7 @@
     </row>
     <row r="21" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="165"/>
-      <c r="B21" s="273"/>
+      <c r="B21" s="274"/>
       <c r="C21" s="18">
         <v>23</v>
       </c>
@@ -12746,7 +12742,7 @@
     </row>
     <row r="22" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="165"/>
-      <c r="B22" s="274"/>
+      <c r="B22" s="275"/>
       <c r="C22" s="18">
         <v>30</v>
       </c>
@@ -12757,7 +12753,7 @@
     </row>
     <row r="23" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="165"/>
-      <c r="B23" s="272" t="s">
+      <c r="B23" s="273" t="s">
         <v>327</v>
       </c>
       <c r="C23" s="18">
@@ -12770,7 +12766,7 @@
     </row>
     <row r="24" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="165"/>
-      <c r="B24" s="273"/>
+      <c r="B24" s="274"/>
       <c r="C24" s="18">
         <v>13</v>
       </c>
@@ -12781,7 +12777,7 @@
     </row>
     <row r="25" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="165"/>
-      <c r="B25" s="273"/>
+      <c r="B25" s="274"/>
       <c r="C25" s="18">
         <v>20</v>
       </c>
@@ -12792,7 +12788,7 @@
     </row>
     <row r="26" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="165"/>
-      <c r="B26" s="272" t="s">
+      <c r="B26" s="273" t="s">
         <v>328</v>
       </c>
       <c r="C26" s="18">
@@ -12805,7 +12801,7 @@
     </row>
     <row r="27" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="165"/>
-      <c r="B27" s="273"/>
+      <c r="B27" s="274"/>
       <c r="C27" s="18">
         <v>18</v>
       </c>
@@ -12816,7 +12812,7 @@
     </row>
     <row r="28" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="165"/>
-      <c r="B28" s="273"/>
+      <c r="B28" s="274"/>
       <c r="C28" s="18">
         <v>25</v>
       </c>
@@ -12827,7 +12823,7 @@
     </row>
     <row r="29" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="165"/>
-      <c r="B29" s="272" t="s">
+      <c r="B29" s="273" t="s">
         <v>329</v>
       </c>
       <c r="C29" s="18">
@@ -12840,7 +12836,7 @@
     </row>
     <row r="30" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="165"/>
-      <c r="B30" s="273"/>
+      <c r="B30" s="274"/>
       <c r="C30" s="18">
         <v>8</v>
       </c>
@@ -12851,7 +12847,7 @@
     </row>
     <row r="31" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="165"/>
-      <c r="B31" s="273"/>
+      <c r="B31" s="274"/>
       <c r="C31" s="18">
         <v>15</v>
       </c>
@@ -12862,7 +12858,7 @@
     </row>
     <row r="32" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="165"/>
-      <c r="B32" s="273"/>
+      <c r="B32" s="274"/>
       <c r="C32" s="18">
         <v>22</v>
       </c>
@@ -12873,7 +12869,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="165"/>
-      <c r="B33" s="274"/>
+      <c r="B33" s="275"/>
       <c r="C33" s="18">
         <v>29</v>
       </c>
@@ -12884,7 +12880,7 @@
     </row>
     <row r="34" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="165"/>
-      <c r="B34" s="272" t="s">
+      <c r="B34" s="273" t="s">
         <v>330</v>
       </c>
       <c r="C34" s="18">
@@ -12897,7 +12893,7 @@
     </row>
     <row r="35" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="165"/>
-      <c r="B35" s="273"/>
+      <c r="B35" s="274"/>
       <c r="C35" s="18">
         <v>12</v>
       </c>
@@ -12908,7 +12904,7 @@
     </row>
     <row r="36" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="165"/>
-      <c r="B36" s="273"/>
+      <c r="B36" s="274"/>
       <c r="C36" s="18">
         <v>19</v>
       </c>
@@ -12919,7 +12915,7 @@
     </row>
     <row r="37" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="165"/>
-      <c r="B37" s="274"/>
+      <c r="B37" s="275"/>
       <c r="C37" s="18">
         <v>26</v>
       </c>
@@ -12930,7 +12926,7 @@
     </row>
     <row r="38" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="165"/>
-      <c r="B38" s="272" t="s">
+      <c r="B38" s="273" t="s">
         <v>331</v>
       </c>
       <c r="C38" s="18">
@@ -12943,7 +12939,7 @@
     </row>
     <row r="39" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="165"/>
-      <c r="B39" s="273"/>
+      <c r="B39" s="274"/>
       <c r="C39" s="18">
         <v>10</v>
       </c>
@@ -12954,7 +12950,7 @@
     </row>
     <row r="40" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="165"/>
-      <c r="B40" s="273"/>
+      <c r="B40" s="274"/>
       <c r="C40" s="18">
         <v>17</v>
       </c>
@@ -12965,7 +12961,7 @@
     </row>
     <row r="41" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="165"/>
-      <c r="B41" s="273"/>
+      <c r="B41" s="274"/>
       <c r="C41" s="18">
         <v>24</v>
       </c>
@@ -12976,7 +12972,7 @@
     </row>
     <row r="42" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="165"/>
-      <c r="B42" s="274"/>
+      <c r="B42" s="275"/>
       <c r="C42" s="18">
         <v>31</v>
       </c>
@@ -12986,7 +12982,7 @@
       <c r="E42" s="165"/>
     </row>
     <row r="43" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="272" t="s">
+      <c r="B43" s="273" t="s">
         <v>332</v>
       </c>
       <c r="C43" s="18">
@@ -12997,7 +12993,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="273"/>
+      <c r="B44" s="274"/>
       <c r="C44" s="18">
         <v>14</v>
       </c>
@@ -13006,7 +13002,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="273"/>
+      <c r="B45" s="274"/>
       <c r="C45" s="18">
         <v>21</v>
       </c>
@@ -13032,11 +13028,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B45"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B14:B17"/>
@@ -13044,8 +13035,171 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>